--- a/cups安装路线图.xlsx
+++ b/cups安装路线图.xlsx
@@ -1,50 +1,392 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="27975" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>更改configure中动态链接库的位置</t>
+  </si>
+  <si>
+    <t>并把库文件放到新路径中</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -52,31 +394,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -90,15 +718,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="圆角矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695324" y="1790700"/>
-          <a:ext cx="2038351" cy="1295400"/>
+          <a:off x="608965" y="2047875"/>
+          <a:ext cx="1791335" cy="1524000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -121,7 +749,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="false"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -145,6 +773,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
             <a:t>/scheduler/main.c</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -175,15 +804,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="圆角矩形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3419474" y="1790699"/>
-          <a:ext cx="2047876" cy="1285875"/>
+          <a:off x="3000375" y="2047240"/>
+          <a:ext cx="1800225" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -206,7 +835,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="false"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -253,15 +882,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="圆角矩形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6181725" y="1828800"/>
-          <a:ext cx="2047876" cy="1219200"/>
+          <a:off x="5410200" y="2114550"/>
+          <a:ext cx="1790700" cy="1390650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -284,7 +913,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="false"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -308,6 +937,7 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
             <a:t>cupsd.conf</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -342,19 +972,22 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="圆角矩形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8896349" y="1819275"/>
-          <a:ext cx="2171701" cy="1247775"/>
+          <a:off x="7800975" y="2105025"/>
+          <a:ext cx="1895475" cy="1419225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -373,7 +1006,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="false"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -428,19 +1061,22 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="圆角矩形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11791948" y="1819275"/>
-          <a:ext cx="2266951" cy="1247775"/>
+          <a:off x="10333990" y="2105025"/>
+          <a:ext cx="2009775" cy="1419225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -459,7 +1095,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="false"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -514,15 +1150,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="圆角矩形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676274" y="3810000"/>
-          <a:ext cx="2066925" cy="1247775"/>
+          <a:off x="600075" y="4410075"/>
+          <a:ext cx="1800225" cy="1419225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -545,7 +1181,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="false"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -553,6 +1189,7 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
             <a:t>Step6</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -615,15 +1252,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="圆角矩形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3438525" y="3667125"/>
-          <a:ext cx="2066925" cy="1533525"/>
+          <a:off x="3009900" y="4238625"/>
+          <a:ext cx="1809750" cy="1762125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -646,7 +1283,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="false"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -654,6 +1291,7 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
             <a:t>Step7</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -705,15 +1343,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="圆角矩形 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6181726" y="3829050"/>
-          <a:ext cx="2038350" cy="1238250"/>
+          <a:off x="5410200" y="4429125"/>
+          <a:ext cx="1790700" cy="1438275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -736,7 +1374,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="false"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -744,6 +1382,7 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
             <a:t>Step8</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -784,15 +1423,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="圆角矩形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="3810000"/>
-          <a:ext cx="2038350" cy="1276350"/>
+          <a:off x="7810500" y="4410075"/>
+          <a:ext cx="1790700" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -815,7 +1454,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="false"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -823,6 +1462,7 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
             <a:t>Step9</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -863,15 +1503,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="圆角矩形 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11801475" y="3829050"/>
-          <a:ext cx="2038350" cy="1238250"/>
+          <a:off x="10344150" y="4429125"/>
+          <a:ext cx="1781175" cy="1438275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -894,7 +1534,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="false"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -902,6 +1542,7 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
             <a:t>Step10</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -975,7 +1616,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
         <xdr:cNvCxnSpPr>
@@ -984,9 +1625,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2733675" y="2433637"/>
-          <a:ext cx="685799" cy="4763"/>
+        <a:xfrm flipV="true">
+          <a:off x="2400300" y="2804795"/>
+          <a:ext cx="600075" cy="5080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1025,7 +1666,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
         <xdr:cNvCxnSpPr>
@@ -1035,8 +1676,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5467350" y="2433637"/>
-          <a:ext cx="714375" cy="4763"/>
+          <a:off x="4800600" y="2804795"/>
+          <a:ext cx="609600" cy="5080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1075,7 +1716,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
         <xdr:cNvCxnSpPr>
@@ -1085,8 +1726,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229601" y="2438400"/>
-          <a:ext cx="666748" cy="4763"/>
+          <a:off x="7200900" y="2809875"/>
+          <a:ext cx="600075" cy="4445"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1125,7 +1766,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
         <xdr:cNvCxnSpPr>
@@ -1135,8 +1776,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11068050" y="2443163"/>
-          <a:ext cx="723898" cy="0"/>
+          <a:off x="9696450" y="2814320"/>
+          <a:ext cx="637540" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1175,7 +1816,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="肘形连接符 32"/>
         <xdr:cNvCxnSpPr>
@@ -1184,9 +1825,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="676274" y="2443163"/>
-          <a:ext cx="13382625" cy="1990725"/>
+        <a:xfrm flipH="true">
+          <a:off x="600075" y="2814320"/>
+          <a:ext cx="11743690" cy="2305050"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst>
@@ -1229,7 +1870,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
         <xdr:cNvCxnSpPr>
@@ -1239,8 +1880,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743199" y="4433888"/>
-          <a:ext cx="695326" cy="0"/>
+          <a:off x="2400300" y="5119370"/>
+          <a:ext cx="609600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1279,7 +1920,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
         <xdr:cNvCxnSpPr>
@@ -1289,8 +1930,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5505450" y="4433888"/>
-          <a:ext cx="676276" cy="14287"/>
+          <a:off x="4819650" y="5119370"/>
+          <a:ext cx="590550" cy="14605"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1329,7 +1970,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
         <xdr:cNvCxnSpPr>
@@ -1339,8 +1980,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8220076" y="4448175"/>
-          <a:ext cx="704849" cy="0"/>
+          <a:off x="7200900" y="5133975"/>
+          <a:ext cx="609600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1379,7 +2020,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
         <xdr:cNvCxnSpPr>
@@ -1389,8 +2030,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10963275" y="4448175"/>
-          <a:ext cx="838200" cy="0"/>
+          <a:off x="9601200" y="5133975"/>
+          <a:ext cx="742950" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1462,7 +2103,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1497,7 +2138,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1537,7 +2178,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1561,9 +2202,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1587,7 +2228,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1640,7 +2281,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1665,34 +2306,40 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="F8:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="8" spans="6:6">
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="6:6">
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>